--- a/biology/Médecine/Polyclinique_militaire_régionale_de_Kairouan/Polyclinique_militaire_régionale_de_Kairouan.xlsx
+++ b/biology/Médecine/Polyclinique_militaire_régionale_de_Kairouan/Polyclinique_militaire_régionale_de_Kairouan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Polyclinique_militaire_r%C3%A9gionale_de_Kairouan</t>
+          <t>Polyclinique_militaire_régionale_de_Kairouan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La polyclinique militaire régionale de Kairouan est un établissement sanitaire tunisien situé à Kairouan et où les soins sont prodigués sans hospitalisation. Il dépend financièrement et administrativement de la direction générale de la santé militaire.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Polyclinique_militaire_r%C3%A9gionale_de_Kairouan</t>
+          <t>Polyclinique_militaire_régionale_de_Kairouan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La mission principale de la polyclinique consiste à :
 Fournir des prestations sanitaires, sous forme de consultations de médecine générale, de médecine dentaire, de médecine spécialisée et d'explorations radiologiques et biologiques ;
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Polyclinique_militaire_r%C3%A9gionale_de_Kairouan</t>
+          <t>Polyclinique_militaire_régionale_de_Kairouan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les consultations spécialisées sont les suivantes :
 Endocrinologie
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Polyclinique_militaire_r%C3%A9gionale_de_Kairouan</t>
+          <t>Polyclinique_militaire_régionale_de_Kairouan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +609,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Polyclinique militaire régionale de Kairouan sur le site officiel du ministère de la Défense
  Portail de la médecine   Portail de l’histoire militaire   Portail de la Tunisie                   </t>
